--- a/data/trans_dic/P16B09-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B09-Provincia-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B09-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B09-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>90,95; 100</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>93,43; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>92,68; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>94,39; 100</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>94,84; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>91,36; 100</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>73,23; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>82,18; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>90,51; 100</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>87,87; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>92,07; 100</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>89,81; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>90,95; 100</t>
         </is>
       </c>
     </row>
@@ -1072,12 +1072,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1087,32 +1087,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,32 +1140,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>90,51; 100</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>91,36; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>93,19; 100</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>93,43; 100</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>92,68; 100</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>92,39; 100</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>93,64; 100</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>90,95; 100</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>96,18; 100</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>94,97; 100</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>93,85; 100</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,28%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,99%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,33%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,34%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,92%</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>78,4; 100,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>86,59; 100,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>89,08; 100,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>76,92; 100,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>87,21; 97,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>91,5; 100,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>79,04; 100,0</t>
         </is>
       </c>
     </row>
@@ -1512,47 +1512,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,69%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,46%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,68%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,85%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,01%</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>91,75; 99,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>96,96; 100</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>95,93; 100</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>95,68; 100,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>95,87; 99,51</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>93,46; 100,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>95,74; 99,31</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>96,51; 99,64</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,17</t>
+          <t>94,31; 100,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B09-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B09-Provincia-trans_dic.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>97,07%</t>
+          <t>96,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>97,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,17; 100</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,87; 100,0</t>
+          <t>81,27; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>89,81; 100,0</t>
+          <t>83,62; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_dic/P16B09-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B09-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +733,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +843,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -925,7 +926,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>73,23; 100,0</t>
+          <t>78,59; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -940,7 +941,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>82,18; 100,0</t>
+          <t>79,17; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1035,7 +1036,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,27; 100,0</t>
+          <t>80,51; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1051,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,62; 100,0</t>
+          <t>88,72; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1172,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1282,7 +1283,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1455,7 +1456,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>78,4; 100,0</t>
+          <t>76,19; 97,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1470,32 +1471,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>86,59; 100,0</t>
+          <t>87,16; 100,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>89,08; 100,0</t>
+          <t>89,95; 100,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>76,92; 100,0</t>
+          <t>73,53; 100,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>87,21; 97,87</t>
+          <t>86,87; 97,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>91,5; 100,0</t>
+          <t>91,69; 100,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>79,04; 100,0</t>
+          <t>79,87; 100,0</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1566,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>91,75; 99,15</t>
+          <t>91,57; 99,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1580,32 +1581,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>95,68; 100,0</t>
+          <t>95,18; 100,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>95,87; 99,51</t>
+          <t>95,58; 99,51</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>93,46; 100,0</t>
+          <t>92,17; 100,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>95,74; 99,31</t>
+          <t>95,59; 99,32</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>96,51; 99,64</t>
+          <t>96,78; 99,64</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>94,31; 100,0</t>
+          <t>95,48; 100,0</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para el reuma fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8146</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5885</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11662</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10349</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>11343</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19808</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>14315</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>17228</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6620; 8146</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2528; 3966</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4330; 5885</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9833; 11662</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8410; 10349</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9406; 11343</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>18016; 19808</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12384; 14315</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>15308; 17228</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5066</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>14725</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6953</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>28772</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>26788</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15360</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>33838</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>41513</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22313</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3517; 5066</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12415; 14725</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5337; 6953</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>26881; 28772</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>24826; 26788</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>13424; 15360</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>31939; 33838</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>39371; 41513</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20385; 22313</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3860</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5098</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7806</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>19154</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11265</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11665</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24252</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>18504</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2461; 3860</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3539; 5098</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5883; 7239</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6186; 7806</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15872; 20196</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9341; 11265</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9973; 11665</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>20025; 25295</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16747; 18504</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>7191</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12341</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6220</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>15298</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>27372</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>15019</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>22489</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>39714</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>21239</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5519; 7191</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10405; 12341</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4577; 6220</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>13593; 15298</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>22954; 28512</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>13126; 15019</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>20706; 22489</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>36246; 40854</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>19317; 21239</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8869</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8009</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>20918</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>21697</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>12730</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>29787</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>29706</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>12730</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7029; 8869</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6147; 8009</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>18932; 20918</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>19822; 21697</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>10733; 12730</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>27760; 29787</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>27754; 29706</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>10733; 12730</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5655</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6269</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5333</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10281</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>16308</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>13298</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>15936</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>22577</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>18631</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4161; 5655</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4613; 6269</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3702; 5333</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>8525; 10281</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>14490; 16308</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>11369; 13298</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>14160; 15936</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>20710; 22577</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>16668; 18631</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>25198</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>8451</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>9960</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>24285</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>32889</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>22378</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>49483</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>41340</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>32337</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>23353; 25198</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>6697; 8451</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>8259; 9960</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>22436; 24285</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>30799; 32889</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>20353; 22378</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>47590; 49483</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>39263; 41340</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>30348; 32337</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>28579</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>10603</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>3606</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>50259</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>48780</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>29162</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>78838</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>59382</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>32769</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>23854; 30491</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>8792; 10603</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2005; 3606</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>45766; 52510</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>44776; 49779</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>22732; 30915</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>72814; 82115</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>55365; 60381</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>27573; 34522</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>92562</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>69463</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>45195</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>169281</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>203337</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>130554</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>261843</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>272799</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>175749</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>87256; 94476</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>67352; 69463</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>43357; 45195</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>163263; 171532</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>197384; 205503</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>121943; 132307</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>255048; 265014</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>267088; 274978</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>169480; 177502</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>